--- a/temelağırlık.xlsx
+++ b/temelağırlık.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="120">
   <si>
     <t>Ağırlık</t>
   </si>
@@ -34,6 +34,9 @@
     <t>Kişisel ulaştırma araçlarının yakıt ve yağları (benzin, motorin, motor yağı)</t>
   </si>
   <si>
+    <t>Sigaralar</t>
+  </si>
+  <si>
     <t>Taze sebzeler (patates hariç)</t>
   </si>
   <si>
@@ -118,6 +121,9 @@
     <t>Çamaşır ve bulaşık makineleri</t>
   </si>
   <si>
+    <t>İlaçlar</t>
+  </si>
+  <si>
     <t>Üniversite eğitimi</t>
   </si>
   <si>
@@ -127,6 +133,9 @@
     <t>Dizel otomobiller (sıfır km)</t>
   </si>
   <si>
+    <t>Ayakta tedavi hizmetleri (muayene ücreti, muayene katkı payı vb.)</t>
+  </si>
+  <si>
     <t>Şarküteri ürünleri (sucuk, sosis, salam vb.)</t>
   </si>
   <si>
@@ -175,6 +184,9 @@
     <t>Ev içi hizmetler (gündelikçi ücreti)</t>
   </si>
   <si>
+    <t>Karayolu ile şehirler arası yolcu taşımacılığı</t>
+  </si>
+  <si>
     <t>Motosikletler</t>
   </si>
   <si>
@@ -253,6 +265,9 @@
     <t>Kişisel ulaştırma araçları ile ilgili diğer hizmetler (köprü ve otoban geçiş ücretleri dahil)</t>
   </si>
   <si>
+    <t>Havayolu ile yolcu taşımacılığı</t>
+  </si>
+  <si>
     <t>Kahve</t>
   </si>
   <si>
@@ -277,9 +292,15 @@
     <t>Halı</t>
   </si>
   <si>
+    <t>Bira</t>
+  </si>
+  <si>
     <t>Kişisel ulaştırma araçlarının bakım ve onarımı</t>
   </si>
   <si>
+    <t>Alkollü içecekler (rakı, viski, votka vb.)</t>
+  </si>
+  <si>
     <t>Bebek giyim</t>
   </si>
   <si>
@@ -325,7 +346,13 @@
     <t>Giyim eşyalarının temizlenmesi ve tadilatı</t>
   </si>
   <si>
+    <t>Deniz ve yurt içi su yolu ile yolcu taşımacılığı</t>
+  </si>
+  <si>
     <t>Evcil hayvanlarla ilgili veterinerlik ve diğer hizmetler</t>
+  </si>
+  <si>
+    <t>Şarap</t>
   </si>
   <si>
     <t>Konserve edilmiş veya işlenmiş balık</t>
@@ -704,7 +731,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B110"/>
+  <dimension ref="A1:B119"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -723,7 +750,7 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>8.189940310407511</v>
+        <v>7.67987540522442</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -731,7 +758,7 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>7.57662976001022</v>
+        <v>7.10476149312725</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -739,7 +766,7 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>7.214231435477179</v>
+        <v>6.76493313370205</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -747,7 +774,7 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <v>4.0064874154646</v>
+        <v>3.75696561845111</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -755,7 +782,7 @@
         <v>6</v>
       </c>
       <c r="B6">
-        <v>3.60398833540773</v>
+        <v>3.65861614248528</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -763,7 +790,7 @@
         <v>7</v>
       </c>
       <c r="B7">
-        <v>2.99836706083342</v>
+        <v>3.37953395614387</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -771,7 +798,7 @@
         <v>8</v>
       </c>
       <c r="B8">
-        <v>2.87708557081783</v>
+        <v>2.81163043606896</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -779,7 +806,7 @@
         <v>9</v>
       </c>
       <c r="B9">
-        <v>2.63735994977236</v>
+        <v>2.69790228946742</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -787,7 +814,7 @@
         <v>10</v>
       </c>
       <c r="B10">
-        <v>2.53150734685894</v>
+        <v>2.47310664611826</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -795,7 +822,7 @@
         <v>11</v>
       </c>
       <c r="B11">
-        <v>2.37215774098534</v>
+        <v>2.37384648415338</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -803,7 +830,7 @@
         <v>12</v>
       </c>
       <c r="B12">
-        <v>2.36667666496269</v>
+        <v>2.22442108267325</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -811,7 +838,7 @@
         <v>13</v>
       </c>
       <c r="B13">
-        <v>2.3021703312628</v>
+        <v>2.21928136500193</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -819,7 +846,7 @@
         <v>14</v>
       </c>
       <c r="B14">
-        <v>2.25295034616742</v>
+        <v>2.15879244971231</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -827,7 +854,7 @@
         <v>15</v>
       </c>
       <c r="B15">
-        <v>2.22320361500016</v>
+        <v>2.11263785777971</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -835,7 +862,7 @@
         <v>16</v>
       </c>
       <c r="B16">
-        <v>2.1600365785798</v>
+        <v>2.08474373640413</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -843,7 +870,7 @@
         <v>17</v>
       </c>
       <c r="B17">
-        <v>1.581891905195</v>
+        <v>2.02551070770804</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -851,7 +878,7 @@
         <v>18</v>
       </c>
       <c r="B18">
-        <v>1.56637352482428</v>
+        <v>1.48337256145719</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -859,7 +886,7 @@
         <v>19</v>
       </c>
       <c r="B19">
-        <v>1.53595131875146</v>
+        <v>1.46882065714275</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -867,7 +894,7 @@
         <v>20</v>
       </c>
       <c r="B20">
-        <v>1.49294143488953</v>
+        <v>1.4402931290612</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -875,7 +902,7 @@
         <v>21</v>
       </c>
       <c r="B21">
-        <v>1.4857665401821</v>
+        <v>1.39996187672802</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -883,7 +910,7 @@
         <v>22</v>
       </c>
       <c r="B22">
-        <v>1.38983974841948</v>
+        <v>1.39323383045293</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -891,7 +918,7 @@
         <v>23</v>
       </c>
       <c r="B23">
-        <v>1.27384512059489</v>
+        <v>1.3032813056679</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -899,7 +926,7 @@
         <v>24</v>
       </c>
       <c r="B24">
-        <v>1.13884499380316</v>
+        <v>1.19451075843494</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -907,7 +934,7 @@
         <v>25</v>
       </c>
       <c r="B25">
-        <v>1.04672404646303</v>
+        <v>1.06791836408837</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -915,7 +942,7 @@
         <v>26</v>
       </c>
       <c r="B26">
-        <v>1.01474551513151</v>
+        <v>0.98153465786229</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -923,7 +950,7 @@
         <v>27</v>
       </c>
       <c r="B27">
-        <v>0.9516261101881701</v>
+        <v>0.9515477315893299</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -931,7 +958,7 @@
         <v>28</v>
       </c>
       <c r="B28">
-        <v>0.94427757606898</v>
+        <v>0.89235936790849</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -939,7 +966,7 @@
         <v>29</v>
       </c>
       <c r="B29">
-        <v>0.9353309542287601</v>
+        <v>0.8854684963871401</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -947,7 +974,7 @@
         <v>30</v>
       </c>
       <c r="B30">
-        <v>0.900153945568</v>
+        <v>0.8770790651548901</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -955,7 +982,7 @@
         <v>31</v>
       </c>
       <c r="B31">
-        <v>0.8973472960784999</v>
+        <v>0.8440928609331301</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -963,7 +990,7 @@
         <v>32</v>
       </c>
       <c r="B32">
-        <v>0.8910088430667901</v>
+        <v>0.8414610080051901</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -971,7 +998,7 @@
         <v>33</v>
       </c>
       <c r="B33">
-        <v>0.8777419124790499</v>
+        <v>0.8355173103045</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -979,7 +1006,7 @@
         <v>34</v>
       </c>
       <c r="B34">
-        <v>0.83949399858711</v>
+        <v>0.8230766367389</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -987,7 +1014,7 @@
         <v>35</v>
       </c>
       <c r="B35">
-        <v>0.8019546134230201</v>
+        <v>0.7943075249224401</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -995,7 +1022,7 @@
         <v>36</v>
       </c>
       <c r="B36">
-        <v>0.7884859673934199</v>
+        <v>0.78721078154742</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -1003,7 +1030,7 @@
         <v>37</v>
       </c>
       <c r="B37">
-        <v>0.78602562548093</v>
+        <v>0.7520093283106299</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -1011,7 +1038,7 @@
         <v>38</v>
       </c>
       <c r="B38">
-        <v>0.7393305801583699</v>
+        <v>0.73937950202814</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -1019,7 +1046,7 @@
         <v>39</v>
       </c>
       <c r="B39">
-        <v>0.72695610392789</v>
+        <v>0.73904702400248</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -1027,7 +1054,7 @@
         <v>40</v>
       </c>
       <c r="B40">
-        <v>0.72305518622118</v>
+        <v>0.7370723888348699</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -1035,7 +1062,7 @@
         <v>41</v>
       </c>
       <c r="B41">
-        <v>0.70230234058242</v>
+        <v>0.69328548483719</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -1043,7 +1070,7 @@
         <v>42</v>
       </c>
       <c r="B42">
-        <v>0.6953132180374</v>
+        <v>0.68168168407026</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -1051,7 +1078,7 @@
         <v>43</v>
       </c>
       <c r="B43">
-        <v>0.6858743649445</v>
+        <v>0.6780237133381199</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -1059,7 +1086,7 @@
         <v>44</v>
       </c>
       <c r="B44">
-        <v>0.65744370317867</v>
+        <v>0.65856334332699</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -1067,7 +1094,7 @@
         <v>45</v>
       </c>
       <c r="B45">
-        <v>0.65469057311915</v>
+        <v>0.65200949942786</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -1075,7 +1102,7 @@
         <v>46</v>
       </c>
       <c r="B46">
-        <v>0.62340418772453</v>
+        <v>0.6431584928302301</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -1083,7 +1110,7 @@
         <v>47</v>
       </c>
       <c r="B47">
-        <v>0.60185902205624</v>
+        <v>0.6164984767892999</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -1091,7 +1118,7 @@
         <v>48</v>
       </c>
       <c r="B48">
-        <v>0.5985653038521199</v>
+        <v>0.6139168101311601</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -1099,7 +1126,7 @@
         <v>49</v>
       </c>
       <c r="B49">
-        <v>0.5836825045164701</v>
+        <v>0.584578923333</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -1107,7 +1134,7 @@
         <v>50</v>
       </c>
       <c r="B50">
-        <v>0.5534355613801301</v>
+        <v>0.56437557854096</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -1115,7 +1142,7 @@
         <v>51</v>
       </c>
       <c r="B51">
-        <v>0.5508230801469</v>
+        <v>0.56128699126575</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -1123,7 +1150,7 @@
         <v>52</v>
       </c>
       <c r="B52">
-        <v>0.49975668302845</v>
+        <v>0.54733108435474</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -1131,7 +1158,7 @@
         <v>53</v>
       </c>
       <c r="B53">
-        <v>0.48571267062959</v>
+        <v>0.51896790393194</v>
       </c>
     </row>
     <row r="54" spans="1:2">
@@ -1139,7 +1166,7 @@
         <v>54</v>
       </c>
       <c r="B54">
-        <v>0.44590225727239</v>
+        <v>0.5165181265698</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -1147,7 +1174,7 @@
         <v>55</v>
       </c>
       <c r="B55">
-        <v>0.43354150971303</v>
+        <v>0.46863211612293</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -1155,7 +1182,7 @@
         <v>56</v>
       </c>
       <c r="B56">
-        <v>0.41685476130787</v>
+        <v>0.46586128572751</v>
       </c>
     </row>
     <row r="57" spans="1:2">
@@ -1163,7 +1190,7 @@
         <v>57</v>
       </c>
       <c r="B57">
-        <v>0.41657465446819</v>
+        <v>0.4554627569670799</v>
       </c>
     </row>
     <row r="58" spans="1:2">
@@ -1171,7 +1198,7 @@
         <v>58</v>
       </c>
       <c r="B58">
-        <v>0.41046352089875</v>
+        <v>0.41813171390376</v>
       </c>
     </row>
     <row r="59" spans="1:2">
@@ -1179,7 +1206,7 @@
         <v>59</v>
       </c>
       <c r="B59">
-        <v>0.40640220666601</v>
+        <v>0.406540786794</v>
       </c>
     </row>
     <row r="60" spans="1:2">
@@ -1187,7 +1214,7 @@
         <v>60</v>
       </c>
       <c r="B60">
-        <v>0.40225930302448</v>
+        <v>0.39089327975331</v>
       </c>
     </row>
     <row r="61" spans="1:2">
@@ -1195,7 +1222,7 @@
         <v>61</v>
       </c>
       <c r="B61">
-        <v>0.38407777473435</v>
+        <v>0.39063061781105</v>
       </c>
     </row>
     <row r="62" spans="1:2">
@@ -1203,7 +1230,7 @@
         <v>62</v>
       </c>
       <c r="B62">
-        <v>0.37726219875936</v>
+        <v>0.38490008222481</v>
       </c>
     </row>
     <row r="63" spans="1:2">
@@ -1211,7 +1238,7 @@
         <v>63</v>
       </c>
       <c r="B63">
-        <v>0.35891666603735</v>
+        <v>0.38109170437262</v>
       </c>
     </row>
     <row r="64" spans="1:2">
@@ -1219,7 +1246,7 @@
         <v>64</v>
       </c>
       <c r="B64">
-        <v>0.34253826336449</v>
+        <v>0.37720681845442</v>
       </c>
     </row>
     <row r="65" spans="1:2">
@@ -1227,7 +1254,7 @@
         <v>65</v>
       </c>
       <c r="B65">
-        <v>0.33601609886703</v>
+        <v>0.36015762558457</v>
       </c>
     </row>
     <row r="66" spans="1:2">
@@ -1235,7 +1262,7 @@
         <v>66</v>
       </c>
       <c r="B66">
-        <v>0.31189649018734</v>
+        <v>0.35376651987206</v>
       </c>
     </row>
     <row r="67" spans="1:2">
@@ -1243,7 +1270,7 @@
         <v>67</v>
       </c>
       <c r="B67">
-        <v>0.31073343772686</v>
+        <v>0.33656353667469</v>
       </c>
     </row>
     <row r="68" spans="1:2">
@@ -1251,7 +1278,7 @@
         <v>68</v>
       </c>
       <c r="B68">
-        <v>0.30381277985238</v>
+        <v>0.32120517176642</v>
       </c>
     </row>
     <row r="69" spans="1:2">
@@ -1259,7 +1286,7 @@
         <v>69</v>
       </c>
       <c r="B69">
-        <v>0.29604502804817</v>
+        <v>0.31508920402864</v>
       </c>
     </row>
     <row r="70" spans="1:2">
@@ -1267,7 +1294,7 @@
         <v>70</v>
       </c>
       <c r="B70">
-        <v>0.29598988778902</v>
+        <v>0.2924717510971</v>
       </c>
     </row>
     <row r="71" spans="1:2">
@@ -1275,7 +1302,7 @@
         <v>71</v>
       </c>
       <c r="B71">
-        <v>0.29300078103806</v>
+        <v>0.29138113289382</v>
       </c>
     </row>
     <row r="72" spans="1:2">
@@ -1283,7 +1310,7 @@
         <v>72</v>
       </c>
       <c r="B72">
-        <v>0.28849980496746</v>
+        <v>0.28489148972383</v>
       </c>
     </row>
     <row r="73" spans="1:2">
@@ -1291,7 +1318,7 @@
         <v>73</v>
       </c>
       <c r="B73">
-        <v>0.28839399848932</v>
+        <v>0.27760750916059</v>
       </c>
     </row>
     <row r="74" spans="1:2">
@@ -1299,7 +1326,7 @@
         <v>74</v>
       </c>
       <c r="B74">
-        <v>0.2855362386183</v>
+        <v>0.27755580300596</v>
       </c>
     </row>
     <row r="75" spans="1:2">
@@ -1307,7 +1334,7 @@
         <v>75</v>
       </c>
       <c r="B75">
-        <v>0.25799361330274</v>
+        <v>0.27475285615284</v>
       </c>
     </row>
     <row r="76" spans="1:2">
@@ -1315,7 +1342,7 @@
         <v>76</v>
       </c>
       <c r="B76">
-        <v>0.23841796014136</v>
+        <v>0.27053219835634</v>
       </c>
     </row>
     <row r="77" spans="1:2">
@@ -1323,7 +1350,7 @@
         <v>77</v>
       </c>
       <c r="B77">
-        <v>0.23576485732996</v>
+        <v>0.27043298144651</v>
       </c>
     </row>
     <row r="78" spans="1:2">
@@ -1331,7 +1358,7 @@
         <v>78</v>
       </c>
       <c r="B78">
-        <v>0.2344503112484574</v>
+        <v>0.26775320126307</v>
       </c>
     </row>
     <row r="79" spans="1:2">
@@ -1339,7 +1366,7 @@
         <v>79</v>
       </c>
       <c r="B79">
-        <v>0.21458363342223</v>
+        <v>0.2419259152586</v>
       </c>
     </row>
     <row r="80" spans="1:2">
@@ -1347,7 +1374,7 @@
         <v>80</v>
       </c>
       <c r="B80">
-        <v>0.20594610000901</v>
+        <v>0.2235694228353</v>
       </c>
     </row>
     <row r="81" spans="1:2">
@@ -1355,7 +1382,7 @@
         <v>81</v>
       </c>
       <c r="B81">
-        <v>0.20511751010938</v>
+        <v>0.22108155378419</v>
       </c>
     </row>
     <row r="82" spans="1:2">
@@ -1363,7 +1390,7 @@
         <v>82</v>
       </c>
       <c r="B82">
-        <v>0.18483590850495</v>
+        <v>0.2198488768979352</v>
       </c>
     </row>
     <row r="83" spans="1:2">
@@ -1371,7 +1398,7 @@
         <v>83</v>
       </c>
       <c r="B83">
-        <v>0.18191878013088</v>
+        <v>0.21241884158439</v>
       </c>
     </row>
     <row r="84" spans="1:2">
@@ -1379,7 +1406,7 @@
         <v>84</v>
       </c>
       <c r="B84">
-        <v>0.17942475241635</v>
+        <v>0.20121948466326</v>
       </c>
     </row>
     <row r="85" spans="1:2">
@@ -1387,7 +1414,7 @@
         <v>85</v>
       </c>
       <c r="B85">
-        <v>0.17350824763477</v>
+        <v>0.19311989200351</v>
       </c>
     </row>
     <row r="86" spans="1:2">
@@ -1395,7 +1422,7 @@
         <v>86</v>
       </c>
       <c r="B86">
-        <v>0.16571810739482</v>
+        <v>0.19234290621973</v>
       </c>
     </row>
     <row r="87" spans="1:2">
@@ -1403,7 +1430,7 @@
         <v>87</v>
       </c>
       <c r="B87">
-        <v>0.16041254192373</v>
+        <v>0.17332443142785</v>
       </c>
     </row>
     <row r="88" spans="1:2">
@@ -1411,7 +1438,7 @@
         <v>88</v>
       </c>
       <c r="B88">
-        <v>0.13631718512967</v>
+        <v>0.17058898017855</v>
       </c>
     </row>
     <row r="89" spans="1:2">
@@ -1419,7 +1446,7 @@
         <v>89</v>
       </c>
       <c r="B89">
-        <v>0.12502554339786</v>
+        <v>0.16825027911616</v>
       </c>
     </row>
     <row r="90" spans="1:2">
@@ -1427,7 +1454,7 @@
         <v>90</v>
       </c>
       <c r="B90">
-        <v>0.12306421115541</v>
+        <v>0.16270225094566</v>
       </c>
     </row>
     <row r="91" spans="1:2">
@@ -1435,7 +1462,7 @@
         <v>91</v>
       </c>
       <c r="B91">
-        <v>0.12077191696123</v>
+        <v>0.15539727628595</v>
       </c>
     </row>
     <row r="92" spans="1:2">
@@ -1443,7 +1470,7 @@
         <v>92</v>
       </c>
       <c r="B92">
-        <v>0.11969934576586</v>
+        <v>0.15063144315655</v>
       </c>
     </row>
     <row r="93" spans="1:2">
@@ -1451,7 +1478,7 @@
         <v>93</v>
       </c>
       <c r="B93">
-        <v>0.10880304788441</v>
+        <v>0.15042213846712</v>
       </c>
     </row>
     <row r="94" spans="1:2">
@@ -1459,7 +1486,7 @@
         <v>94</v>
       </c>
       <c r="B94">
-        <v>0.08961859633777</v>
+        <v>0.1392773511055</v>
       </c>
     </row>
     <row r="95" spans="1:2">
@@ -1467,7 +1494,7 @@
         <v>95</v>
       </c>
       <c r="B95">
-        <v>0.08346130900786</v>
+        <v>0.12782742702731</v>
       </c>
     </row>
     <row r="96" spans="1:2">
@@ -1475,7 +1502,7 @@
         <v>96</v>
       </c>
       <c r="B96">
-        <v>0.07231994225327</v>
+        <v>0.11723902243169</v>
       </c>
     </row>
     <row r="97" spans="1:2">
@@ -1483,7 +1510,7 @@
         <v>97</v>
       </c>
       <c r="B97">
-        <v>0.0677371979035</v>
+        <v>0.11539984086511</v>
       </c>
     </row>
     <row r="98" spans="1:2">
@@ -1491,7 +1518,7 @@
         <v>98</v>
       </c>
       <c r="B98">
-        <v>0.0564220923322</v>
+        <v>0.11325030947218</v>
       </c>
     </row>
     <row r="99" spans="1:2">
@@ -1499,7 +1526,7 @@
         <v>99</v>
       </c>
       <c r="B99">
-        <v>0.05265916446689001</v>
+        <v>0.1122445374114</v>
       </c>
     </row>
     <row r="100" spans="1:2">
@@ -1507,7 +1534,7 @@
         <v>100</v>
       </c>
       <c r="B100">
-        <v>0.04687269801002</v>
+        <v>0.10202685487207</v>
       </c>
     </row>
     <row r="101" spans="1:2">
@@ -1515,7 +1542,7 @@
         <v>101</v>
       </c>
       <c r="B101">
-        <v>0.04489515391276</v>
+        <v>0.08403720024559</v>
       </c>
     </row>
     <row r="102" spans="1:2">
@@ -1523,7 +1550,7 @@
         <v>102</v>
       </c>
       <c r="B102">
-        <v>0.04365959797319</v>
+        <v>0.07826338532929</v>
       </c>
     </row>
     <row r="103" spans="1:2">
@@ -1531,7 +1558,7 @@
         <v>103</v>
       </c>
       <c r="B103">
-        <v>0.03391305284452</v>
+        <v>0.06781589666928001</v>
       </c>
     </row>
     <row r="104" spans="1:2">
@@ -1539,7 +1566,7 @@
         <v>104</v>
       </c>
       <c r="B104">
-        <v>0.02991435181038</v>
+        <v>0.06351856307632001</v>
       </c>
     </row>
     <row r="105" spans="1:2">
@@ -1547,7 +1574,7 @@
         <v>105</v>
       </c>
       <c r="B105">
-        <v>0.02412652735507</v>
+        <v>0.05290815595600001</v>
       </c>
     </row>
     <row r="106" spans="1:2">
@@ -1555,7 +1582,7 @@
         <v>106</v>
       </c>
       <c r="B106">
-        <v>0.01667676632438</v>
+        <v>0.04937958113505</v>
       </c>
     </row>
     <row r="107" spans="1:2">
@@ -1563,7 +1590,7 @@
         <v>107</v>
       </c>
       <c r="B107">
-        <v>0.007557969049808208</v>
+        <v>0.04395349257506</v>
       </c>
     </row>
     <row r="108" spans="1:2">
@@ -1571,7 +1598,7 @@
         <v>108</v>
       </c>
       <c r="B108">
-        <v>0.006276600432446549</v>
+        <v>0.04209910881893</v>
       </c>
     </row>
     <row r="109" spans="1:2">
@@ -1579,7 +1606,7 @@
         <v>109</v>
       </c>
       <c r="B109">
-        <v>0.006104722912053572</v>
+        <v>0.04094050261272</v>
       </c>
     </row>
     <row r="110" spans="1:2">
@@ -1587,7 +1614,79 @@
         <v>110</v>
       </c>
       <c r="B110">
-        <v>0.005924485049673911</v>
+        <v>0.03933889788976</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2">
+      <c r="A111" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B111">
+        <v>0.03180096686733</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2">
+      <c r="A112" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B112">
+        <v>0.02844559923058</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2">
+      <c r="A113" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B113">
+        <v>0.02805130269873</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2">
+      <c r="A114" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B114">
+        <v>0.02262394071569</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2">
+      <c r="A115" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B115">
+        <v>0.01563814663833</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2">
+      <c r="A116" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B116">
+        <v>0.007087262961527161</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2">
+      <c r="A117" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B117">
+        <v>0.005885697265499205</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2">
+      <c r="A118" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B118">
+        <v>0.005724524181014135</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2">
+      <c r="A119" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B119">
+        <v>0.005555511431968726</v>
       </c>
     </row>
   </sheetData>
